--- a/ig/ValueSet-group-member-status.xlsx
+++ b/ig/ValueSet-group-member-status.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from hp.owl" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from group-member-sta" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This value set includes age at onset codes from Human Phenotype Ontology.</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -93,25 +90,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>AFF</t>
-  </si>
-  <si>
-    <t>Affected</t>
-  </si>
-  <si>
-    <t>UNF</t>
-  </si>
-  <si>
-    <t>Unaffected</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>Juvenile onset</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -120,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/hp.owl</t>
+    <t>http://fhir.cqgc.ferlab.bio/CodeSystem/group-member-status</t>
   </si>
 </sst>
 </file>
@@ -349,27 +331,27 @@
         <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -379,7 +361,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,50 +373,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ValueSet-group-member-status.xlsx
+++ b/ig/ValueSet-group-member-status.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from group-member-sta" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Group member sta" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
